--- a/musselpark_zorg.xlsx
+++ b/musselpark_zorg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User111\Desktop\Zorgprestaties Apothekersgroep Groningen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3140C01A-E17B-4083-B14A-5572EC7C446B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{919EE25D-7365-4D2F-B6E5-6021837BA4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FF9C8BA-1EDB-45B4-ABC0-AB49B17BC0CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1F7621AA-B8EF-4E8E-A2B0-CE70EB4E90C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Opdracht" sheetId="1" r:id="rId1"/>
@@ -457,10 +457,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B850F356-A40E-4D49-9AD7-719B660EC8F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F6915E-6250-46D7-B946-EC0FB844B829}">
   <dimension ref="A1:D3332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3305" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
